--- a/biology/Zoologie/Fourmilier_tacheté/Fourmilier_tacheté.xlsx
+++ b/biology/Zoologie/Fourmilier_tacheté/Fourmilier_tacheté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fourmilier_tachet%C3%A9</t>
+          <t>Fourmilier_tacheté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylophylax naevius
 Le Fourmilier tacheté (Hylophylax naevius) est une espèce de passereaux de la famille des Thamnophilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fourmilier_tachet%C3%A9</t>
+          <t>Fourmilier_tacheté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname et au Venezuela.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fourmilier_tachet%C3%A9</t>
+          <t>Fourmilier_tacheté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 avril 2024) :
 Hylophylax naevius consobrina Todd, 1913
 Hylophylax naevius inexpectatus Carriker, 1932
 Hylophylax naevius naevius (Gmelin, 1789)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fourmilier_tachet%C3%A9</t>
+          <t>Fourmilier_tacheté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hylophylax naevius (Gmelin, 1789)[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Fourmilier tacheté[2],[3].
-Hylophylax naevius a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Hylophylax naevius (Gmelin, 1789).
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Fourmilier tacheté,.
+Hylophylax naevius a pour synonyme :
 Pipra naevia Gmelin, 1789</t>
         </is>
       </c>
